--- a/Annotation Comparer/precisionResults2.xlsx
+++ b/Annotation Comparer/precisionResults2.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet0" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="327">
   <si>
     <t>PMC Table</t>
   </si>
@@ -41,55 +42,958 @@
     <t>Formatting info</t>
   </si>
   <si>
+    <t>TP + FP</t>
+  </si>
+  <si>
+    <t>Sentences missed by TFIDF</t>
+  </si>
+  <si>
+    <t>PMC1557711</t>
+  </si>
+  <si>
+    <t>Results from cell and cell tumour experiments</t>
+  </si>
+  <si>
+    <t>Treatment with R115777 50 mg/kg or 100 mg/kg or control vehicle (20% β-cyclodextrin) was begun when measurable tumours were formed in about 75% of injection sites.</t>
+  </si>
+  <si>
+    <t>Tumour growth inhibition is given as a percentage.</t>
+  </si>
+  <si>
+    <t>Treatment with R115777 (50 mg/kg or 100 mg/kg; Johnson and Johnson Pharmaceutical Research and Development, Raritan, NJ, USA) or control vehicle (20% β-cyclodextrin) was given as a gavage twice daily from Monday to Friday and once daily during weekends.</t>
+  </si>
+  <si>
+    <t>In MDA-MB 231 with activated k-ras no inhibition was observed.</t>
+  </si>
+  <si>
+    <t>Instead, the growth in the treated tumours was increased by 68.8% (13.8ï¿½284.1%; P = 0.08) and 91.2% (2.8ï¿½328.8%; P = 0.09), respectively, relative to control tumours (n = 16; Figure ​1c and Table ​1).</t>
+  </si>
+  <si>
+    <t>Treatment with the farnesyl transferase inhibitor reduced cell growth in vitro and cell tumour growth in vivo.</t>
+  </si>
+  <si>
+    <t>The IC50s are presented as the mean value of three separate experiments with the corresponding standard errors of the mean.</t>
+  </si>
+  <si>
+    <t>There was a significant decrease in the cell turnover index (CTI; proliferation/apoptosis).</t>
+  </si>
+  <si>
+    <t>Treatment with the FTI reduced cell growth in vitro.</t>
+  </si>
+  <si>
+    <t>The percentage with interquartile range is based on the median growth inhibition among treated tumours relative to the median control tumour growth.</t>
+  </si>
+  <si>
+    <t>We chose the doses 50 mg/kg and 100 mg/kg, based on data from previous experiments with R115777 [12].</t>
+  </si>
+  <si>
+    <t>In this study we have shown that treatment with the FTI R115777 reduced cell growth in vitro and cell tumour growth in vivo.</t>
+  </si>
+  <si>
+    <t>In MCF-7/HER2-18 and SKOV3 cells the levels of tumour growth inhibition were approximately 85% and 40%, respectively.</t>
+  </si>
+  <si>
+    <t>The effects of R115777, a farnesyl transferase inhibitor, were investigated in cancer cell lines expressing varying levels of growth factor receptors and with differing ras status</t>
+  </si>
+  <si>
     <t>PMC1557711T1.html</t>
   </si>
   <si>
-    <t>PMC2360724tbl2a.html</t>
+    <t>Apoptosis and proliferation in cell tumour experiments</t>
+  </si>
+  <si>
+    <t>In vitro, the concentrations required to reduce cell numbers by 50% (50% inhibitory concentration) were established (MDA-MB231, MCF-7, MCF-7/HER2-18, BT-474, SK-BR3 and SKOV3).</t>
+  </si>
+  <si>
+    <t>Sections of DCIS xenografts and cell tumours were scored for proliferation after Ki67 immunohistochemical staining (MIB-1; Coulter-Immunotech, Luton, UK).</t>
+  </si>
+  <si>
+    <t>The effects of R115777, a farnesyl transferase inhibitor, were investigated in cancer cell lines expressing varying levels of growth factor receptors and with differing ras status.</t>
+  </si>
+  <si>
+    <t>The apoptotic index was similar in treated and control tumours; for R115777 50 mg/kg it was 0.4% (0.3ï¿½0.6%; P = 0.98), for R115777 100 mg/kg it was 0.4% (0.3ï¿½0.7%; P = 0.75) and for controls it was 0.4% (0.3ï¿½0.6%).</t>
+  </si>
+  <si>
+    <t>The apoptotic index was higher in the treated tumours; for R115777 50 mg/kg it was 1.5% (1.2ï¿½1.6%; P = 0.04) and for R115777 100 mg/kg it was 1.6% (1.4ï¿½1.9%; P = 0.003) as compared with 1.2% in the control tumours (0.9ï¿½1.5%).</t>
+  </si>
+  <si>
+    <t>The human breast cancer cell lines MDA-MB231, MCF-7, MCF-7/HER2-18, BT-474 and SK-BR3 and the human ovarian cancer cell line SKOV3 were obtained from the American Type Culture Collection (Rockville, MA, USA) and grown and subcultured according to their instructions.</t>
+  </si>
+  <si>
+    <t>The apoptotic index did not differ between treated tumours; for R115777 50 mg/kg it was 0.49% (0.4ï¿½0.7%; P = 0.11), for R115777 100 mg/kg it was 0.48% (0.4ï¿½0.8%; P = 0.18) and it was 0.35% in the control tumours (0.3ï¿½0.5%).</t>
+  </si>
+  <si>
+    <t>PMC1557711T2.html</t>
+  </si>
+  <si>
+    <t>Results from experiments conducted in human DCIS xenografts</t>
+  </si>
+  <si>
+    <t>In DCIS treatment resulted in a reduced CTI.</t>
+  </si>
+  <si>
+    <t>Overall, CTI decreased in treated xenografts.</t>
+  </si>
+  <si>
+    <t>In human DCIS xenografts treatment also resulted in a reduced CTI.</t>
+  </si>
+  <si>
+    <t>There was decreased proliferation in the xenografts treated with R115777.</t>
+  </si>
+  <si>
+    <t>Apoptosis increased in the treated DCIS xenografts</t>
+  </si>
+  <si>
+    <t>In the experiments with implanted cell tumours the duration of treatment varied between 8 and 29 days in different experiments, depending on how fast the tumours grew.</t>
+  </si>
+  <si>
+    <t>Treatment was given over 14 days in the experiments with human DCIS.</t>
+  </si>
+  <si>
+    <t>Human DCIS was implanted in nude mice or, in separate experiments, cultured cells were injected (MDA-MB231, MCF-7/HER2-18, SKOV3) and allowed to form tumours.</t>
+  </si>
+  <si>
+    <t>A CTI (proliferation index/apoptotic index) [28] was calculated for each individual xenograft and cell tumour.</t>
+  </si>
+  <si>
+    <t>Proliferation and apoptosis were determined by immunohistochemistry in xenografts and cell tumours.</t>
+  </si>
+  <si>
+    <t>Strikingly, we found an effect on proliferation and apoptosis that was consistent in the in vivo studies of cell tumours expressing wild-type ras (MCF-7/HER2-18 and SKOV3) and in human DCIS.</t>
+  </si>
+  <si>
+    <t>In human DCIS xenografts treatment resulted in a reduced cell turnover index (CTI).</t>
+  </si>
+  <si>
+    <t>PMC1557711T3.html</t>
+  </si>
+  <si>
+    <t>PMC2360724</t>
+  </si>
+  <si>
+    <t>In such a way, the only significant morphological and biological variable between the two groups was the presence of metastatic depitsos.</t>
+  </si>
+  <si>
+    <t>Clinico-pathological features of the series under study as related to M+ and M− tumours</t>
+  </si>
+  <si>
+    <t>A P-value of 0.05 was considered statistically significant.</t>
+  </si>
+  <si>
+    <t>Data were described as number and percentage or means and s.d., whether appropriate.</t>
+  </si>
+  <si>
+    <t>This study includes 202 consecutive primary advanced metastatic and nonmetastatic CRCs surgically removed from 1997 to 2002.</t>
+  </si>
+  <si>
+    <t>Accordingly, these two groups will be referred to throughout the paper as metastatic (M+) and nonmetastatic (M−) tumours.</t>
+  </si>
+  <si>
+    <t>Aim of this study was to characterise genetic and epigenetic molecular alterations occurring in primary advanced M+ and M− CRCs.</t>
+  </si>
+  <si>
+    <t>Interestingly, in the present study, younger age was statistically associated to M+ tumours.</t>
+  </si>
+  <si>
+    <t>PMC2360724tbl1.html</t>
+  </si>
+  <si>
+    <t>The target was to establish in CRCs if and which genetic and epigenetic molecular abnormalities, among a number of selected genes, are associated to a metastogenic phenotype.</t>
+  </si>
+  <si>
+    <t>K-Ras, p53 and B-Raf mutations and RASSF1A, E-Cadherin and p16INK4A promoter methylation were investigated in 202 CRCs with and without lymph node and/or liver metastasis, to assess whether gene abnormalities are related to a metastogenic phenotype.</t>
+  </si>
+  <si>
+    <t>The present study was aimed to investigate both genetic and epigenetic changes occurring in CRC by comparing the molecular profiles of primary metastatic and nonmetastatic tumours.</t>
+  </si>
+  <si>
+    <t>We selected for study the mutational status of K-Ras, B-Raf and p53 and the epigenetic status of RASSF1A, E-Cadherin and p16INK4A.</t>
+  </si>
+  <si>
+    <t>We designed a study aimed to compare genetic and epigenetic changes occurring in primary advanced nonmetastatic CRCs as opposed to primary advanced metastatic CRCs.</t>
+  </si>
+  <si>
+    <t>RASSF1A, E-Cadherin and p16INK4A methylation was documented in 20, 44 and 33% of the cases with p16INK4A significantly associated with metastatic tumours (P=0.001).</t>
+  </si>
+  <si>
+    <t>Epigenetic alterations: promoter methylation frequencies for RASSF1A, E-Cadherin and p16INK4A</t>
+  </si>
+  <si>
+    <t>PMC2360724tbl2b.html</t>
+  </si>
+  <si>
+    <t>PMC2361104</t>
+  </si>
+  <si>
+    <t>The aim of this study was to investigate the incidence of BRAF mutations in a sizable number of FDNs and its implication for KRAS mutations, for MSI, and for the immunohistochemical status of p-MAPK, and to compare these genetic and immunohistochemical characteristics of FDNs with PNs as controls.</t>
+  </si>
+  <si>
+    <t>Clinicopathological characteristics of patients with flat and depressed neoplasias, and protruding neoplasia</t>
+  </si>
+  <si>
+    <t>Although some molecular differences between flat-depressed neoplasias (FDNs) and protruding neoplasias (PNs) have been reported, it is uncertain if the BRAF mutations or the status of phosphorylated mitogen-activated protein kinase (p-MAPK) are different between theses two groups.</t>
+  </si>
+  <si>
+    <t>A series of 57 endoscopically or surgically resected PNs were used as controls.</t>
+  </si>
+  <si>
+    <t>According to the criteria described previously (Konishi et al, 1999), tumour location was classified into three groups: rectum, left-colon (left-c), and right-colon (right-c).</t>
+  </si>
+  <si>
+    <t>PMC2361104tbl1.html</t>
+  </si>
+  <si>
+    <t>Type B and C immunostaining for p-MAPK was observed in 34 out of 46 FDNs (72%), compared with 24 out of 55 PNs (44%; P=0.0022 by χ2 test).</t>
+  </si>
+  <si>
+    <t>KRAS mutations were observed in none of FDNs and in 14 PNs (25%; P=0.0002 by Fisher's exact test).</t>
+  </si>
+  <si>
+    <t>Characteristics of colorectal neoplasias with BRAF or KRAS mutations</t>
+  </si>
+  <si>
+    <t>We evaluated the incidence of BRAF and KRAS mutations, high-frequency microsatellite instability (MSI-H), and the immunohistochemical status of p-MAPK in the nonserrated neoplasias (46 FDNs and 57 PNs).</t>
+  </si>
+  <si>
+    <t>BRAF mutations were detected in four FDNs (9%) and none of PNs (P=0.0369 by Fisher's exact test).</t>
+  </si>
+  <si>
+    <t>There was no significant difference in the type B and C immunostaining of p-MAPK between FDNs with and without BRAF mutations.</t>
+  </si>
+  <si>
+    <t>BRAF and KRAS mutations are mutually exclusive in the morphological characteristics of colorectal nonserrated neoplasia.</t>
+  </si>
+  <si>
+    <t>BRAF mutations were detected in four out of 46 of FDNs (9%) and none of the 57 PNs.</t>
+  </si>
+  <si>
+    <t>In the FDNs, type B/C expression of p-MAPK was observed significantly more frequently in Duke's A carcinomas than in the adenomas (P=0.0338 by Fisher's exact test).</t>
   </si>
   <si>
     <t>PMC2361104tbl2.html</t>
   </si>
   <si>
-    <t>PMC2361658tbl1.html</t>
+    <t>The incidence of type B and C immunostaining of p-MAPK was significantly higher in the FDNs than in the PNs.</t>
+  </si>
+  <si>
+    <t>However, these differences were not statistically significant</t>
+  </si>
+  <si>
+    <t>BRAF mutations were found in one out of seven FDNs with MSI-H (14%) and in three out of 37 FDNs without MSI-H (8%).</t>
+  </si>
+  <si>
+    <t>By contrast, KRAS mutations were observed in none of FDNs and in 25% of PNs</t>
+  </si>
+  <si>
+    <t>However, about 80% of the adjacent normal mucosa showed type A p-MAPK expression.</t>
+  </si>
+  <si>
+    <t>Of the seven FDNs with MSI-H, four were adenomas and three were Duke's type A carcinomas, whereas one PN with MSI-H were adenomas.</t>
+  </si>
+  <si>
+    <t>PMC2361104tbl3.html</t>
+  </si>
+  <si>
+    <t>PMC2361658</t>
+  </si>
+  <si>
+    <t>Here, we demonstrate that the BMP3b and BMP6 genes are common targets of epigenetic inactivation in NSCLC, and that they are significantly more likely to be concurrently inactivated (P=0.009).</t>
+  </si>
+  <si>
+    <t>We investigated whether BMP6 is epigenetically inactivated in cell lines and whether BMP3b and BMP6 are epigenetically inactivated in non-small-cell lung cancer (NSCLC).</t>
+  </si>
+  <si>
+    <t>As a result of the known importance of BMP signalling in the respiratory tract and the in vitro evidence of crosstalk between signalling pathways, we hypothesised that concurrent BMP inactivation and oncogenic k-ras mutation would be important in non-small-cell lung cancer (NSCLC).</t>
+  </si>
+  <si>
+    <t>Logistic regression modelling of BMP methylation and k-ras mutation in NSCLC</t>
+  </si>
+  <si>
+    <t>We also studied the relationship between BMP methylation and k-ras mutation.</t>
+  </si>
+  <si>
+    <t>Demographic and epidemiologic data, including all of the data on tobacco use and occupational asbestos exposure, were obtained from a self-administered questionnaire</t>
+  </si>
+  <si>
+    <t>completed by patients and subsequently reviewed by a single reviewer during the hospitalisation for thoracic surgery.</t>
+  </si>
+  <si>
+    <t>Furthermore, this coinactivation of BMP3b and BMP6 is significantly associated with mutation of k-ras codon 12 in lung cancer (P=0.003); those with a k-ras mutation were six times more likely to have concurrent methylation of these BMP loci.</t>
+  </si>
+  <si>
+    <t>In the case of BMP inactivation, there was no apparent association of methylation silencing with tobacco exposure.</t>
+  </si>
+  <si>
+    <t>Asbestos exposure was defined as having any occupational asbestos exposure (yes/no), assessed as previously described (Nelson et al, 1999).</t>
+  </si>
+  <si>
+    <t>There were 155 cases with fresh tumour DNA available to be tested for BMP3b and BMP6 methylation.</t>
+  </si>
+  <si>
+    <t>However, we identified an inverse relationship between asbestos exposure and BMP methylation.</t>
+  </si>
+  <si>
+    <t>PMC2361658tbl2.html</t>
+  </si>
+  <si>
+    <t>PMC2361800</t>
+  </si>
+  <si>
+    <t>PCR primers for BRAF, NRAS, KRAS and HRAS genes</t>
+  </si>
+  <si>
+    <t>We thus screened for activating mutations in the NRAS, HRAS, KRAS and BRAF genes in uveal melanoma cell lines and primary uveal melanomas.</t>
+  </si>
+  <si>
+    <t>Sequence analysis was performed on exons 11ï¿½15 of BRAF, and exons 1 and 2 of the three RAS family members, which cover the positions of all known mutations of these genes in all types of cancer.</t>
+  </si>
+  <si>
+    <t>PMC2361800tbl1.html</t>
+  </si>
+  <si>
+    <t>Summary of mutation analyses, immunohistochemical and Western blotting data in uveal melanoma cell lines and primary uveal melanomas</t>
+  </si>
+  <si>
+    <t>Despite this, mitogen-activated protein kinase/extracellular signal-regulated kinase kinase (MEK), ERK and ELK were constitutively activated in all samples</t>
+  </si>
+  <si>
+    <t>In this study, we performed mutation analysis of the RAS and BRAF genes in a panel of 11 uveal melanoma cell lines and 19 primary uveal melanoma tumours.</t>
+  </si>
+  <si>
+    <t>No mutations were found in any of the three RAS gene family members and only one cell line carried a BRAF mutation (V599E).</t>
+  </si>
+  <si>
+    <t>In addition, Western blot and immunohistochemical analyses were performed on downstream members of the MAPK pathway in order to assess the contribution of each of these components.</t>
+  </si>
+  <si>
+    <t>In keeping with this observation, these two cell lines also have the highest levels of phosphorylated-ERK.</t>
+  </si>
+  <si>
+    <t>In our study, none of the cell lines or primary tumours carried mutations in any of the three RAS genes (N, H and K), a finding consistent with a previous report (Soparker et al, 1993).</t>
+  </si>
+  <si>
+    <t>In response to the constitutively activating BRAF mutation in Ocm 1, downstream members of the MAPK pathway show activation (phosphorylated MEK, ERK and ELK).</t>
+  </si>
+  <si>
+    <t>Omm 1, obtained from a subcutaneous metastasis, was established by Dr Luyten (Luyten et al, 1996).</t>
+  </si>
+  <si>
+    <t>Levels of expression of the downstream members were not different in the two cell lines derived from the same primary tumour (92.1 and 92.2), except for phosphorylated MEK, indicating that there had been little clonal divergence between the cell populations during in vitro culturing.</t>
+  </si>
+  <si>
+    <t>All primary tumour specimens were wild type for BRAF.</t>
+  </si>
+  <si>
+    <t>Interestingly, compared to the phosphorylation status of these members in Ocm 1, most cell lines show activation of MEK, ERK and ELK; however, these cell lines show this activation in the absence of mutations in the upstream RAS and BRAF genes.</t>
   </si>
   <si>
     <t>PMC2361800tbl2.html</t>
   </si>
   <si>
+    <t>Error: Table not found</t>
+  </si>
+  <si>
+    <t>Summary of published RAS and BRAF mutation studies in ocular melanoma</t>
+  </si>
+  <si>
+    <t>Interestingly, Graells et al (2004) demonstrated that the proangiogenic vascular endothelial growth factor (VEGF), which is frequently highly expressed in uveal melanoma (Stitt et al, 1998; Sheidow et al, 2000), could operate in cutaneous melanoma as a survival factor through increasing MAPK and PI3K pathway activity.</t>
+  </si>
+  <si>
+    <t>PMC2361800tbl3.html</t>
+  </si>
+  <si>
+    <t>PMC2474852</t>
+  </si>
+  <si>
+    <t>After infection, cells with integrated lentivirus were selected by sterile sorting for GFP.</t>
+  </si>
+  <si>
+    <t>Three sterile sorts were performed to acquire a polyclonal population of cells exclusively expressing GFP that was subsequently examined for TDAG51 protein reduction by western blotting.</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Trono, Lausanne, Switzerland; [24]).</t>
+  </si>
+  <si>
+    <t>Empty vector-, RasV12G37-, RasV12C40-, and Rlf-CAAX-infected cells failed to form palpable tumors four months after injection.</t>
+  </si>
+  <si>
+    <t>The significantly reduced tumorigenicity of RasV12S35- as compared to RasV12- expressing cells emphasizes the importance of cooperation between Ras signal transduction pathways for a fully transformed phenotype.</t>
+  </si>
+  <si>
+    <t>The expression of the anti-TDAG51 shRNA 36-1 was accomplished by sub-cloning the anti-TDAG51 shRNA sequence 5'-GGAACTGCACTTCTCCAACTTCAAGAGAGTTGGAGAAGTGCAGTTCCTTTTT-3' into the pLVTHM lentivirus (kindly provided by Dr</t>
+  </si>
+  <si>
+    <t>The generation of retroviruses and lentiviruses was as described [23].</t>
+  </si>
+  <si>
+    <t>Polyclonal populations of pLRT infected cells were selected with 5 μg/mL blasticidin.</t>
+  </si>
+  <si>
+    <t>Constructs for the inducible expression of H-Ras, H-Ras effector domain mutants, and Rlf-CAAX were created by PCR subcloning the sequences of HA-tagged H-RasG12V (RasV12), H-RasG12V, E37G (RasV12G37), H-RasG12V, T35S (RasV12S35), H-RasG12V, Y40C (RasV12C40), and Rlf-CAAX [21] into the tetracycline-inducible retroviral expression vector pLRT [22].</t>
+  </si>
+  <si>
+    <t>However, only the ERK pathway is capable of supporting transformation in the absence of EGFR signaling and of supporting tumorigenesis in nude mice.</t>
+  </si>
+  <si>
+    <t>PMC2474852T1.html</t>
+  </si>
+  <si>
+    <t>Up-regulation of the PHLDA1 gene product, TDAG51, was found to correlate with persistent ERK activation and anchorage-independent growth in the absence or presence of EGFR inhibition.</t>
+  </si>
+  <si>
+    <t>This event serves as a negative regulator of both Erk activation as well as matrix-detached cellular proliferation and suggests that TDAG51 opposes ERK-mediated transformation in breast epithelial cells.</t>
+  </si>
+  <si>
+    <t>In addition, increased levels of phospho-Erk were unexpectedly seen in RasV12G37- and RasV12C40-infected cells, possibly the result of autocrine activation of endogenous EGFR by secreted EGFR ligands.</t>
+  </si>
+  <si>
+    <t>Furthermore, we examined whether a highly transcriptionally regulated ERK pathway target, PHLDA1 (TDAG51), suggested to be a tumor suppressor in breast cancer and melanoma, might modulate the transformation process.</t>
+  </si>
+  <si>
+    <t>Here we investigated which signal transduction pathways downstream of Ras contribute to EGFR-dependent transformation of telomerase-immortalized mammary epithelial cells HME16C.</t>
+  </si>
+  <si>
+    <t>RasV12- and Ras EDM-infected HME16C cells were grown in soft agar in the presence or absence of the EGFR-specific inhibitors, PD153035 and PD168393.</t>
+  </si>
+  <si>
+    <t>Therefore, we sought to determine if autocrine signaling by the EGFR was required for the anchorage-independent growth of Ras- or Ras EDM-infected cells.</t>
+  </si>
+  <si>
     <t>PMC2474852T2.html</t>
   </si>
   <si>
+    <t>PMC2480968</t>
+  </si>
+  <si>
+    <t>Nevertheless, the higher rate of LKB1 mutation in adenocarcinomas compared with squamous cell carcinomas retains the same level of statistical significance (stratified P=0.064) after adjusting for fluctuation between ethnic .</t>
+  </si>
+  <si>
+    <t>We detected mutations in the LKB1 gene in 34 tumours (11%).</t>
+  </si>
+  <si>
+    <t>The current study was designed to analyse the incidence of LKB1 mutations in NSCLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevertheless, the higher rate of LKB1 mutation in adenocarcinomas compared with squamous cell carcinomas retains the same level of statistical significance (stratified P=0.064) after adjusting for fluctuation between ethnic </t>
+  </si>
+  <si>
+    <t>Tumours were obtained from patients of US (n=143) and Korean (n=167) origin and screened for LKB1, KRAS, BRAF, and EGFR mutations using RTï¿½PCR-based SURVEYOR-WAVE method followed by Sanger sequencing.</t>
+  </si>
+  <si>
+    <t>This is in contrast to the findings in the Asian patients where all of the LKB1 mutations were detected in adenocarcinomas (9 out of 113 (8%)) and none were detected in squamous cell cancers (0 out of 54 (0%); P=0.032).</t>
+  </si>
+  <si>
+    <t>LKB1</t>
+  </si>
+  <si>
+    <t>In this study we evaluated tumour specimens from 310 patients with NSCLC including those with adenocarcinoma, adenosquamous carcinoma, and squamous cell carcinoma histologies.</t>
+  </si>
+  <si>
+    <t>LKB1 mutation frequency was higher in NSCLC tumours of US origin (17%) compared with 5% in NSCLCs of Korean origin (P=0.001).</t>
+  </si>
+  <si>
+    <t>Frequency of LKB1 mutations in NSCLC tumours and their association with clinicopathological characteristics</t>
+  </si>
+  <si>
+    <t>Furthermore, we wanted to investigate the LKB1 mutational frequency in different histologies and ethnic backgrounds, and assess their correlation to smoking history, gender, stage, survival, and other oncogenic mutations in NSCLC.</t>
+  </si>
+  <si>
+    <t>mutations associated with smoking history (P=0.007) and KRAS mutations (P=0.042) were almost mutually exclusive with EGFR mutations (P=0.002).</t>
+  </si>
+  <si>
+    <t>The large size of our study enabled us to study associations of LKB1 mutations with clinocopathological factors, which have been incompletely characterised in previous studies (Sanchez-Cespedes et al, 2002; Carretero et al, 2004; Fernandez et al, 2004; Matsumoto et al, 2007; Onozato et al, 2007)</t>
+  </si>
+  <si>
+    <t>The reduction in statistical significance is likely owing to the loss of power associated with the overall rarity of LKB1 mutations among never or light former smokers.</t>
+  </si>
+  <si>
+    <t>The majority of the specimens (n=167) was collected at the Samsung Medical Center, Seoul, Korea.</t>
+  </si>
+  <si>
+    <t>In addition, we used a modification of a sensitive mutation screening technique that we have previously developed to facilitate the rapid detection of LKB1 mutations (Janne et al, 2006).</t>
+  </si>
+  <si>
+    <t>We next used the SURVEYOR-WAVE method to screen NSCLC tumour specimens (n=310) for LKB1 mutations</t>
+  </si>
+  <si>
+    <t>NSCLC tumours (n=310) were collected from surgical resections from patients with stages Iï¿½IV NSCLC when sufficient material for RNA extraction was available.</t>
+  </si>
+  <si>
+    <t>No differences in survival were observed in patients who harboured both LKB1 and KRAS mutations compared with those with KRAS or LKB1 alone but the total number of patients with both mutations who had stages I or II NSCLC was small (n=9; data not shown)</t>
+  </si>
+  <si>
+    <t>Our study analysed tumours from different histologies and of both a US and Korean origin to determine potential histological and ethnic variation in LKB1 mutational frequency.</t>
+  </si>
+  <si>
+    <t>Given the differences in LKB1 mutation frequencies in smokers vs never/light smokers and in the US compared with Korean patients, we further determined whether these were also associated with other oncogene mutations known to vary in these subgroups of patients.</t>
+  </si>
+  <si>
+    <t>This is in contrast to the findings in the Asian patients where all of the LKB1 mutations were detected in adenocarcinomas (9 out of 113 (8%)) and none were detected in squamous cell cancers (0 out of 54 (0%); P=0.032)</t>
+  </si>
+  <si>
+    <t>In support of this hypothesis, we find that LKB1 mutations are significantly (P=0.007) more common in smokers than in never or light (⩽10 pack years) cigarette smokers (Table 1).</t>
+  </si>
+  <si>
+    <t>Our study also demonstrated that the LKB1 mutation frequency was significantly higher in cancers derived from a US population compared with those found in Korean patients (17 vs 5%; P=0.001).</t>
+  </si>
+  <si>
+    <t>The present study characterised LKB1 mutation frequency in NSCLC using one of the largest tumour sets to date (n=310).</t>
+  </si>
+  <si>
+    <t>PMC2480968tbl1.html</t>
+  </si>
+  <si>
+    <t>The specific LKB1 mutations in NSCLC tumours</t>
+  </si>
+  <si>
+    <t>The majority of the LKB1 mutations detected was deletions or insertions (n=25, 74%).</t>
+  </si>
+  <si>
+    <t>Some mutational hotspots were discovered.</t>
+  </si>
+  <si>
+    <t>About one-half of the deletions and insertions were small, covering &lt;15 bp (n=14, 56%), whereas larger deletions (n=11, 44%) covering hundreds of base pairs were detected in the remaining specimens.</t>
+  </si>
+  <si>
+    <t>Of the missense mutations detected in the current study, all except R426W are in the kinase domain of the protein.</t>
+  </si>
+  <si>
+    <t>PMC2480968tbl2.html</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>LKB1 mutations associated with smoking history (P=0.007) and KRAS mutations (P=0.042) were almost mutually exclusive with EGFR mutations (P=0.002).</t>
+  </si>
+  <si>
+    <t>Additional studies are needed to clarify the prognostic impact of LKB1 mutations in humans with NSCLC.</t>
+  </si>
+  <si>
+    <t>One possibility is that such tumours contain a concurrent mutation in another oncogene that activates the same signalling pathway as KRAS.</t>
+  </si>
+  <si>
+    <t>Four BRAF mutations (1%) were found in the tumour set (G465V, N581S, L596R, and T599I) and one of these (N581S) occurred concurrently with LKB1 mutation (P=0.373).</t>
+  </si>
+  <si>
+    <t>For this reason, we examined our tumours for BRAF mutations, which are found in 1ï¿½2% of NSCLC (Naoki et al, 2002).</t>
+  </si>
+  <si>
+    <t>We detected 34 LKB1 mutations (11%) in the NSCLC tumour specimens (Table 1).</t>
+  </si>
+  <si>
     <t>PMC2480968tbl3.html</t>
   </si>
   <si>
+    <t>The current study was designed to analyse the incidence of LKB1 mutations in NSCLC.</t>
+  </si>
+  <si>
+    <t>LKB1 genotypes of NSCLC cell lines with EGFR or ERBB2 mutations</t>
+  </si>
+  <si>
+    <t>Taken together our findings suggest that unlike KRAS, mutations in EGFR and LKB1 are mutually exclusive in NSCLC.</t>
+  </si>
+  <si>
+    <t>A549, NCI-H1395, NCI-H1666, NCI-H23, NCI-H2122, NCI-H2126, and NCI-H460 have previously been reported to contain LKB1 mutations (Sanchez-Cespedes et al, 2002; Bamford et al, 2004; Carretero et al, 2004).</t>
+  </si>
+  <si>
+    <t>Ma1, and Ma70 are NSCLC cell lines harbouring EGFR mutations that were established at the Kinki University, Osaka, Japan.</t>
+  </si>
+  <si>
+    <t>PMC2480968tbl4.html</t>
+  </si>
+  <si>
+    <t>PMC2538768</t>
+  </si>
+  <si>
+    <t>Patient's clinicopathological characteristics</t>
+  </si>
+  <si>
+    <t>Nine (36%) patients were treated with gefitinib in the context of an Expanded Access Program (Table 2).</t>
+  </si>
+  <si>
+    <t>Among the 50 samples analysed (25 primary tumours and 25 metastases), 26 (52%) samples were surgical and 24 (48%) biopsies.</t>
+  </si>
+  <si>
+    <t>Histological type was determined according to the World Health Organization criteria, and the stage of the disease corresponds to that of the time of primary diagnosis.</t>
+  </si>
+  <si>
+    <t>The patients' clinicopathologic characteristics are presented in Table 1.</t>
+  </si>
+  <si>
+    <t>Smoking history was obtained during the patient's first evaluation.</t>
+  </si>
+  <si>
+    <t>PMC2538768tbl1.html</t>
+  </si>
+  <si>
+    <t>EGFR and K-RAS status in paired primary and metastatic tumours</t>
+  </si>
+  <si>
+    <t>Three patients received gefitinib before the biopsy of metachronous metastases (nos</t>
+  </si>
+  <si>
+    <t>22) or metastasis (no</t>
+  </si>
+  <si>
+    <t>16).</t>
+  </si>
+  <si>
+    <t>Of these, three patients carried the well-characterised activating mutations in exon 19 (nos</t>
+  </si>
+  <si>
+    <t>23) carried the Del746-750 EGFR mutation in the primary tumour but not in metastasis.</t>
+  </si>
+  <si>
+    <t>Patient no</t>
+  </si>
+  <si>
+    <t>One of them (case no</t>
+  </si>
+  <si>
+    <t>Patient nos</t>
+  </si>
+  <si>
+    <t>The corresponding metastases of the Del746-750 (case no</t>
+  </si>
+  <si>
+    <t>K-RAS mutations were detected in the primary tumours of five (20%) patients (nos</t>
+  </si>
+  <si>
+    <t>Nine patients received gefitinib as first (nos</t>
+  </si>
+  <si>
+    <t>19) mutant primary tumours were wild type with respect to EGFR mutation status.</t>
+  </si>
+  <si>
+    <t>20).</t>
+  </si>
+  <si>
+    <t>Two patients (nos</t>
+  </si>
+  <si>
     <t>PMC2538768tbl2.html</t>
   </si>
   <si>
+    <t>Epidermal growth factor receptor and K-RAS mutations were detected in the metastatic tumours of three (12%) and five (20%) patients, respectively.</t>
+  </si>
+  <si>
+    <t>Among the 25 primary tumours, three ï¿½hotspot' and two non-classical EGFR mutations were found; none of the corresponding metastases had the same mutation pattern.</t>
+  </si>
+  <si>
+    <t>Epidermal growth factor receptor and K-RAS mutation status was different between primary tumours and corresponding metastases in 7 (28%) and 6 (24%) of the 25 patients, respectively.</t>
+  </si>
+  <si>
+    <t>Combined analysis of EGFR and K-RAS mutation status</t>
+  </si>
+  <si>
+    <t>We conclude that there is substantial discordance in EGFR and K-RAS mutational status between the primary tumours and corresponding metastases in patients with NSCLC and this might have therapeutic implications when treatment with TKIs is considered.</t>
+  </si>
+  <si>
+    <t>9, 10, 11, 16 and 23), respectively.</t>
+  </si>
+  <si>
+    <t>8, 10, 22, 23 and 25) and in the metastatic tumours of five (20%) patients (nos</t>
+  </si>
+  <si>
+    <t>Consequently, the EGFR gene status could be classified as: (i) EGFR wild type in both primary tumour and metastasis (n=18 patients; 72%), and (ii) EGFR mutations detected only in the primary tumour (n=4 patients; 16%) or the metastases (n=2 patients; 8%) or both (n=1 patient; 4%).</t>
+  </si>
+  <si>
+    <t>PMC2538768tbl3.html</t>
+  </si>
+  <si>
+    <t>The expressions of EGFR and phosphorylated EGFR showed 10 and 50% discordance, in that order</t>
+  </si>
+  <si>
+    <t>EGFR expression as assessed by IHC</t>
+  </si>
+  <si>
+    <t>​4).</t>
+  </si>
+  <si>
+    <t>Concordance between the primary tumour and the corresponding metastases was observed in 17 (89.5) patients (Cohen's Kappa=0.729, P=0.001) and among them EGFR was overexpressed in four (21.1%).</t>
+  </si>
+  <si>
+    <t>PMC2538768tbl4.html</t>
+  </si>
+  <si>
+    <t>PMC2607229</t>
+  </si>
+  <si>
+    <t>Association between KRAS/BRAF mutational status and clinico-pathological factors in patients with ovarian cancer</t>
+  </si>
+  <si>
+    <t>KRAS/BRAF mutation was significantly correlated with International Federation of Gynecology and Obstetrics (FIGO) stage I, II (P&lt;0.001), and p-ERK1/2 (P&lt;0.001).</t>
+  </si>
+  <si>
+    <t>This study examined the status of KRAS and BRAF mutations, in relation to extracellular signal-regulated protein kinase (ERK) activation in 58 ovarian carcinomas to clarify the clinicopathological and prognostic significance of KRAS/BRAF mutations.</t>
+  </si>
+  <si>
+    <t>There was no significant correlation between KRAS/BRAF mutations and the patient's age.</t>
+  </si>
+  <si>
+    <t>Next, we examined the prognostic effect of KRAS/BRAF mutations and p-ERK1/2 expression.</t>
+  </si>
+  <si>
+    <t>The significantly higher frequency of KRAS/BRAF mutations in non-serous type carcinomas compared with conventional high-grade serous carcinomas in this study is a finding of great interest.</t>
+  </si>
+  <si>
+    <t>There was no significant relationship between KRAS/BRAF mutations or p-ERK1/2 expression and overall survival in patients with ovarian carcinoma (P=0.2460, P=0.9339, respectively).</t>
+  </si>
+  <si>
+    <t>PMC2607229tbl2.html</t>
+  </si>
+  <si>
+    <t>Mutational status of KRAS and BRAF genes and p-ERK1/2 expression in ovarian cancer</t>
+  </si>
+  <si>
+    <t>This study examined the status of KRAS and BRAF mutations, in relation to extracellular signal-regulated protein kinase (ERK) activation in 58 ovarian carcinomas to clarify the clinicopathological and prognostic significance of KRAS/BRAF ï¿½mutations.</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>The frequency of KRAS/BRAF mutations in conventional serous high-grade carcinomas (4.0% : 1/25) was significantly lower than that in the other histological type (32.3% : 10/31).</t>
+  </si>
+  <si>
+    <t>This is consistent with an earlier report (Mizumoto et al, 2007)</t>
+  </si>
+  <si>
+    <t>Diagnosis was based on conventional morphological examination of sections stained with haematoxylin and eosin (H&amp;E) staining, and tumours were classified according to the WHO (World Health Organization) classification.</t>
+  </si>
+  <si>
+    <t>The frequency of either KRAS or BRAF mutations in conventional serous high-grade carcinomas (4.0% : 1/25) was significantly lower than in the other histological type (32.2% : 10/31).</t>
+  </si>
+  <si>
+    <t>Our present results showing low frequencies of either KRAS or BRAF mutations in conventional high-grade serous carcinoma are consistent with our earlier reports (Nakayama et al, 2006).</t>
+  </si>
+  <si>
     <t>PMC2607229tbl1.html</t>
   </si>
   <si>
+    <t>PMC2663546</t>
+  </si>
+  <si>
+    <t>Main characteristics of MGUS, MM patients and healthy controls</t>
+  </si>
+  <si>
+    <t>Serum samples were collected from MGUS and MM patients as well as from 55 healthy blood donors and were stored at -70ï¿½C until testing.</t>
+  </si>
+  <si>
+    <t>All three mediators were analyzed in function of K-ras mutation and melphalan response</t>
+  </si>
+  <si>
+    <t>In the same subjects, basic FGF and VEGF, have been detected</t>
+  </si>
+  <si>
+    <t>Fifty-five healthy blood donors were used as controls.</t>
+  </si>
+  <si>
+    <t>Seventy-one out of the total were patients affected by MGUS and 77 were patients with MM, these latter receiving treatment with conventional chemotherapy (Melphalan/Prednisone).</t>
+  </si>
+  <si>
+    <t>Concerning IGF-I, two representative monitoring examples have also been added.</t>
+  </si>
+  <si>
+    <t>One hundred and forty-eight patients affected with plasmacell dyscrasia were consecutively admitted to the Regina Elena Cancer Institute of Rome and entered this study.</t>
+  </si>
+  <si>
+    <t>The present study is aimed to explore this point comparing 55 healthy subjects, 71 monoclonal gammopaties of uncertain significance (MGUS) and 77 overt MM patients</t>
+  </si>
+  <si>
+    <t>For example, Standal selected only patients with 69% of advanced tumour stages (III), while our patients were prevalently of tumour stages I and II.</t>
+  </si>
+  <si>
+    <t>These two groups of patients were compared with 55 controls represented by healthy human blood donors.</t>
+  </si>
+  <si>
+    <t>PMC2663546T1.html</t>
+  </si>
+  <si>
+    <t>Serum levels of IGF-I, betaFGF and VEGF in Control, MGUS and MM</t>
+  </si>
+  <si>
+    <t>The significances between these three groups were always &lt; 0.0001.</t>
+  </si>
+  <si>
+    <t>Conversely, increasing levels were observed for bFGF and VEGF, molecules significantly correlated.</t>
+  </si>
+  <si>
+    <t>A p &lt; 0.05 cut off has been employed for the significance evaluation.</t>
+  </si>
+  <si>
+    <t>In the same subjects, basic FGF and VEGF, have been detected.</t>
+  </si>
+  <si>
+    <t>The present study clearly shows that the serum IGF-I concentrations significantly decreased from healthy blood donors to MGUS and to MM patients, a finding not previously described.</t>
+  </si>
+  <si>
+    <t>the median value of the relative controls).</t>
+  </si>
+  <si>
+    <t>In spite of the progresses recently registered in the therapy of multiple myeloma (MM), the prognosis for patients affected by this disease remains still poor [1].</t>
+  </si>
+  <si>
+    <t>In addition, MM subjects showed significantly decreased serum IGF-I levels than MGUS</t>
+  </si>
+  <si>
+    <t>One hundred and forty-eight patients affected with plasmacell dyscrasiawere consecutively admitted to the Regina Elena Cancer Institute of Rome and entered this study.</t>
+  </si>
+  <si>
+    <t>In addition, these significances were more pronounced than those observed for bFGF and VEGF.</t>
+  </si>
+  <si>
+    <t>Serum levels of IGF-I in patients affected with multiple myeloma (MM) have been scarcely studied.</t>
+  </si>
+  <si>
+    <t>PMC2663546T2.html</t>
+  </si>
+  <si>
+    <t>K-ras gene status and response to therapy</t>
+  </si>
+  <si>
+    <t>In fact, it was observed a highly significant (p &lt; 0.0001) difference between the controls and MM or between MGUS and MM, while no significance was found between controls and MGUS groups (p = 0.95) by means of a two by two comparison of the three groups (controls, MGUS and MM) concerning the distribution of K-ras gene mutation,</t>
+  </si>
+  <si>
     <t>PMC2663546T3.html</t>
   </si>
   <si>
+    <t>PMC2676548</t>
+  </si>
+  <si>
+    <t>Characterisation of the primary pancreatic cancer xenografts</t>
+  </si>
+  <si>
     <t>PMC2676548tbl1.html</t>
   </si>
   <si>
+    <t>PMC2680060</t>
+  </si>
+  <si>
+    <t>K-ras mutations and p16INK4a promoter methylation in spontaneous lung neoplasm from SPC-p53(273H) transgenic mice and Non-Transgenic controls.</t>
+  </si>
+  <si>
+    <t>All non-transgenic tumors were collected at the age of 13ï¿½24 months, given their rare occurrence at an earlier age.</t>
+  </si>
+  <si>
+    <t>17% respectively).</t>
+  </si>
+  <si>
+    <t>5B).</t>
+  </si>
+  <si>
+    <t>Six of the transgenic mice were 4ï¿½12 months, and fifteen 13ï¿½24 months.</t>
+  </si>
+  <si>
+    <t>These included four in exon 2 (codons 12 or 13) and six in exon 3 (codon 61).</t>
+  </si>
+  <si>
+    <t>0/10).</t>
+  </si>
+  <si>
+    <t>16ï¿½24 months: Fisher's exact p = 0.936).</t>
+  </si>
+  <si>
+    <t>0/10, Fisher's exact test p = 0.18).</t>
+  </si>
+  <si>
+    <t>Among 21 transgenic tumors, ten tumor samples (47.6%) contained K-ras mutations.</t>
+  </si>
+  <si>
+    <t>The overall comparison of tumor rates and mouse type were compared by Fisher's exact test.</t>
+  </si>
+  <si>
     <t>PMC2680060pone-0005563-t001.html</t>
   </si>
   <si>
+    <t>PMC2686726</t>
+  </si>
+  <si>
+    <t>In this article, we will discuss targeted therapies for colorectal cancers (CRC) based on EGFR signaling pathway and review published data about the potential usefulness of KRAS as a biological marker for response to these therapies.</t>
+  </si>
+  <si>
+    <t>These studies reflected response (or lack of response) to EGFR-targeted therapies in patients with metastatic CRC as a function of KRAS status.</t>
+  </si>
+  <si>
+    <t>Results from relevant studies published since 2005 and unpublished results presented at national meetings were retrieved and summarized.</t>
+  </si>
+  <si>
+    <t>[7] with panitumumab as monotherapy or in combination with other agents for previously treated metastatic CRC patients show that KRAS mutation status clearly predicts response to panitumumab.</t>
+  </si>
+  <si>
+    <t>10%, respectively).</t>
+  </si>
+  <si>
+    <t>In this study, 59 patients with previously treated metastatic CRC were treated with cetuximab plus either irinotecan- or oxaliplatin-based chemotherapies.</t>
+  </si>
+  <si>
+    <t>Across all studies, approximately one-third of patients (median 36%, range 24% ï¿½ 44%) had KRAS MT tumors.</t>
+  </si>
+  <si>
+    <t>[15] determined the KRAS mutation status and mRNA expression levels of the EGFR ligands amphiregulin and epiregulin in 95 patients with primary CRC treated with cetuximab and irinotecan and correlated these variables with response and overall survival.</t>
+  </si>
+  <si>
+    <t>No KRAS mutation was found in the 12 patients with a complete or partial tumor response.</t>
+  </si>
+  <si>
+    <t>In each case, KRAS MT was also associated with reduced TTP and OS.</t>
+  </si>
+  <si>
+    <t>Transcriptional profiling was conducted on RNA from mandatory pretreatment metastatic biopsies to identify genes whose expression correlated with best clinical responses.</t>
+  </si>
+  <si>
+    <t>They found that both KRAS and the EGF-A16G polymorphism significantly predicted response to cetuximab-containing treatment combinations, regardless of the specific regimen selected</t>
+  </si>
+  <si>
+    <t>In summary, all studies discussed above using cetuximab either as a monotherapy or in combination with either irinotecan- or oxaliplatin-based chemotherapy for previously treated metastatic CRC patients showed that KRAS mutational status clearly predicts unresponsiveness to cetuximab.</t>
+  </si>
+  <si>
+    <t>Khamabata-Ford and colleagues [12] attempted to systemically identify markers that are associated with disease control in patients treated with cetuximab as a monotherapy.</t>
+  </si>
+  <si>
+    <t>The trial enrolled 110 patients with metastatic CRC who had received at least one prior therapy</t>
+  </si>
+  <si>
+    <t>These studies reflected response to EGFR-targeted therapies in patients with metastatic CRC as a function of KRAS status, and were divided into three groups: (1) previously treated patients who received cetuximab therapy; (2) previously treated patients who received panitumumab therapy; and (3) chemotherapy-naï¿½ve patients who received cetuximab therapy.</t>
+  </si>
+  <si>
+    <t>In the two largest studies [19,20], no patients with KRAS MT tumors showed an objective tumor response to panitumumab.</t>
+  </si>
+  <si>
+    <t>Using direct sequencing of DNA extracted from tumor samples, the investigators detected a KRAS mutation in 16 out of 59 (27%) patients.</t>
+  </si>
+  <si>
+    <t>There is strong evidence that mutated KRAS in tumors predicts unresponsiveness to EGFR-targeted antibody therapies.</t>
+  </si>
+  <si>
+    <t>KRAS and treatment response to Cetuximab or Panitumumab in previously treatment patients with colorectal cancer.</t>
+  </si>
+  <si>
+    <t>In this article, we will discuss targeted therapies for CRC based on the epidermal growth factor receptor (EGFR) signaling pathway and review published data about the potential usefulness of the downstream oncogene Kirsten ras (KRAS) as a biological marker for response to these therapies.</t>
+  </si>
+  <si>
+    <t>PMC2686726T1.html</t>
+  </si>
+  <si>
+    <t>(Table (Table2)2 [22-25] Three of these studies, presenting results from the phase III CRYSTAL and CAIRO2 trials and the phase II OPUS trial, compared outcomes in patients treated with standard chemotherapy regimens (FOLFIRI, CapOxBev, FOLFOX) with or without the addition of cetuximab [22,24,25]</t>
+  </si>
+  <si>
+    <t>The fourth study compared an every-2-week schedule of cetuximab with the approved weekly regimen [23].</t>
+  </si>
+  <si>
+    <t>OS was reported in only one study [24], which noted a small increase in OS associated with KRAS WT compared with KRAS MT (22.2 months versus 19.1 months, respectively).</t>
+  </si>
+  <si>
+    <t>In summary, under controlled conditions in these studies of first-line treatment in metastatic CRC, KRAS mutation was found to be a predictive marker for lack of response to cetuximab treatment, either alone or in combination with irinotecan- or oxaliplatin-based chemotherapies.</t>
+  </si>
+  <si>
+    <t>Across all of the treatment arms shown in the 4 studies in Table 2, a median of 40% of patients (range 33% ï¿½ 46%) had KRAS MT tumors.</t>
+  </si>
+  <si>
     <t>PMC2686726T2.html</t>
-  </si>
-  <si>
-    <t>PMC3009656pgen-1001258-t004.html</t>
-  </si>
-  <si>
-    <t>unusual formatting</t>
-  </si>
-  <si>
-    <t>PMC3031508pone-0014635-t003.html</t>
-  </si>
-  <si>
-    <t>PMC3071831pone-0018424-t001.html</t>
   </si>
 </sst>
 </file>
@@ -168,247 +1072,277 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B3" t="n">
-        <v>0.29411764705882354</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3125</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="D3" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="E3" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="F3" t="n">
-        <v>11.0</v>
+        <v>14.0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.19900000000000015</v>
+        <v>0.2</v>
       </c>
       <c r="H3" t="n">
-        <v>0.30303030303030304</v>
+        <v>0.45</v>
+      </c>
+      <c r="J3" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D4" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3140000000000002</v>
+        <v>0.2</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4137931034482759</v>
+      </c>
+      <c r="J4" t="n">
+        <v>15.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>0.11203319502074689</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>27.0</v>
+        <v>12.0</v>
       </c>
       <c r="E5" t="n">
-        <v>214.0</v>
+        <v>44.0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0</v>
+        <v>15.0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.20149253731343283</v>
+        <v>0.2891566265060241</v>
+      </c>
+      <c r="J5" t="n">
+        <v>56.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04504504504504504</v>
+        <v>0.5</v>
       </c>
       <c r="C6" t="n">
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.0</v>
       </c>
-      <c r="D6" t="n">
-        <v>5.0</v>
-      </c>
       <c r="E6" t="n">
-        <v>106.0</v>
+        <v>1.0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08620689655172413</v>
+        <v>0.22222222222222224</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="B7" t="n">
-        <v>0.19298245614035087</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7857142857142857</v>
+        <v>0.85</v>
       </c>
       <c r="D7" t="n">
-        <v>11.0</v>
+        <v>17.0</v>
       </c>
       <c r="E7" t="n">
-        <v>46.0</v>
+        <v>34.0</v>
       </c>
       <c r="F7" t="n">
         <v>3.0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1490000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H7" t="n">
-        <v>0.30985915492957744</v>
+        <v>0.4788732394366197</v>
+      </c>
+      <c r="J7" t="n">
+        <v>51.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="B8" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="C8" t="n">
         <v>0.5</v>
       </c>
-      <c r="C8" t="n">
-        <v>0.25</v>
-      </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="F8" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.8540000000000006</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H8" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1276595744680851</v>
+        <v>0.125</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D9" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E9" t="n">
-        <v>82.0</v>
+        <v>70.0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0</v>
+        <v>3.0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.06900000000000005</v>
+        <v>0.1</v>
       </c>
       <c r="H9" t="n">
-        <v>0.22641509433962262</v>
+        <v>0.21505376344086022</v>
+      </c>
+      <c r="J9" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="B10" t="n">
-        <v>0.22</v>
+        <v>0.2375</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9565217391304348</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="D10" t="n">
-        <v>22.0</v>
+        <v>19.0</v>
       </c>
       <c r="E10" t="n">
-        <v>78.0</v>
+        <v>61.0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06400000000000004</v>
+        <v>0.1</v>
       </c>
       <c r="H10" t="n">
-        <v>0.35772357723577236</v>
+        <v>0.3584905660377359</v>
+      </c>
+      <c r="J10" t="n">
+        <v>80.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="B11" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.2</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.875</v>
-      </c>
-      <c r="D11" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.04100000000000003</v>
-      </c>
       <c r="H11" t="n">
-        <v>0.32558139534883723</v>
+        <v>0.5714285714285715</v>
+      </c>
+      <c r="J11" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>111</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -417,362 +1351,380 @@
         <v>2.0</v>
       </c>
       <c r="E12" t="n">
-        <v>28.0</v>
+        <v>1.0</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.12800000000000009</v>
+        <v>0.5</v>
       </c>
       <c r="H12" t="n">
-        <v>0.125</v>
+        <v>0.8</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>124</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.625</v>
       </c>
       <c r="C13" t="n">
-        <v>0.75</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="D13" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="E13" t="n">
-        <v>9.0</v>
+        <v>6.0</v>
       </c>
       <c r="F13" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.17000000000000012</v>
+        <v>0.2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.6486486486486486</v>
+        <v>0.6060606060606061</v>
+      </c>
+      <c r="J13" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.2970000000000002</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>128</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5333333333333333</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="D15" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="E15" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="F15" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.20700000000000016</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5714285714285715</v>
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="J15" t="n">
+        <v>23.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="B16" t="n">
-        <v>1.0</v>
+        <v>0.36363636363636365</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9890710382513661</v>
+        <v>0.26666666666666666</v>
       </c>
       <c r="D16" t="n">
-        <v>181.0</v>
+        <v>4.0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="F16" t="n">
-        <v>2.0</v>
+        <v>11.0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.016000000000000007</v>
+        <v>0.2</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9945054945054945</v>
+        <v>0.30769230769230765</v>
+      </c>
+      <c r="J16" t="n">
+        <v>11.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>149</v>
       </c>
       <c r="B17" t="n">
-        <v>0.04477611940298507</v>
+        <v>0.5</v>
       </c>
       <c r="C17" t="n">
-        <v>0.42857142857142855</v>
+        <v>0.125</v>
       </c>
       <c r="D17" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>64.0</v>
+        <v>1.0</v>
       </c>
       <c r="F17" t="n">
-        <v>4.0</v>
+        <v>7.0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.046000000000000034</v>
+        <v>0.4</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08108108108108107</v>
+        <v>0.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>176</v>
       </c>
       <c r="B18" t="n">
-        <v>1.0</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8421052631578947</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="D18" t="n">
-        <v>16.0</v>
+        <v>14.0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0</v>
+        <v>4.0</v>
       </c>
       <c r="F18" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3720000000000003</v>
+        <v>0.4</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9142857142857143</v>
+        <v>0.6222222222222222</v>
+      </c>
+      <c r="J18" t="n">
+        <v>18.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
       <c r="B19" t="n">
-        <v>0.07142857142857142</v>
+        <v>0.75</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="D19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="E19" t="n">
-        <v>26.0</v>
+        <v>1.0</v>
       </c>
       <c r="F19" t="n">
         <v>4.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2810000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="H19" t="n">
-        <v>0.11764705882352941</v>
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="J19" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>190</v>
       </c>
       <c r="B20" t="n">
-        <v>1.0</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C20" t="n">
-        <v>1.0</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D20" t="n">
-        <v>147.0</v>
+        <v>7.0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0</v>
+        <v>0.4</v>
       </c>
       <c r="H20" t="n">
-        <v>1.0</v>
+        <v>0.5599999999999999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>13.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c r="B21" t="n">
-        <v>0.078125</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C21" t="n">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D21" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="E21" t="n">
-        <v>59.0</v>
+        <v>1.0</v>
       </c>
       <c r="F21" t="n">
         <v>3.0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.11400000000000009</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1388888888888889</v>
+        <v>0.75</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="B22" t="n">
-        <v>0.14285714285714285</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C22" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="D22" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="E22" t="n">
-        <v>18.0</v>
+        <v>2.0</v>
       </c>
       <c r="F22" t="n">
         <v>5.0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.36000000000000026</v>
+        <v>0.30000000000000004</v>
       </c>
       <c r="H22" t="n">
-        <v>0.20689655172413796</v>
+        <v>0.588235294117647</v>
+      </c>
+      <c r="J22" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>220</v>
       </c>
       <c r="B23" t="n">
-        <v>0.4148936170212766</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8478260869565217</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="D23" t="n">
-        <v>39.0</v>
+        <v>34.0</v>
       </c>
       <c r="E23" t="n">
-        <v>55.0</v>
+        <v>48.0</v>
       </c>
       <c r="F23" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.06100000000000005</v>
+        <v>0.1</v>
       </c>
       <c r="H23" t="n">
-        <v>0.557142857142857</v>
+        <v>0.523076923076923</v>
+      </c>
+      <c r="J23" t="n">
+        <v>82.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="B24" t="n">
-        <v>1.0</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="C24" t="n">
-        <v>1.0</v>
+        <v>0.46153846153846156</v>
       </c>
       <c r="D24" t="n">
-        <v>152.0</v>
+        <v>6.0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="H24" t="n">
-        <v>1.0</v>
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="J24" t="n">
+        <v>31.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="B25" t="n">
-        <v>0.031746031746031744</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="C25" t="n">
-        <v>1.0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D25" t="n">
         <v>2.0</v>
       </c>
       <c r="E25" t="n">
-        <v>61.0</v>
+        <v>15.0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1400000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06153846153846154</v>
+        <v>0.2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>17.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="B26" t="n">
-        <v>0.375</v>
+        <v>0.75</v>
       </c>
       <c r="C26" t="n">
         <v>0.42857142857142855</v>
@@ -781,111 +1733,123 @@
         <v>3.0</v>
       </c>
       <c r="E26" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
       <c r="F26" t="n">
         <v>4.0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.3850000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
-        <v>0.39999999999999997</v>
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>252</v>
       </c>
       <c r="B27" t="n">
-        <v>1.0</v>
+        <v>0.34615384615384615</v>
       </c>
       <c r="C27" t="n">
-        <v>1.0</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="D27" t="n">
-        <v>163.0</v>
+        <v>9.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0</v>
+        <v>17.0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0</v>
+        <v>0.2</v>
       </c>
       <c r="H27" t="n">
-        <v>1.0</v>
+        <v>0.45</v>
+      </c>
+      <c r="J27" t="n">
+        <v>26.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="B28" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.1875</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.25</v>
       </c>
       <c r="D28" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="E28" t="n">
-        <v>72.0</v>
+        <v>13.0</v>
       </c>
       <c r="F28" t="n">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.02000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="H28" t="n">
-        <v>0.13483146067415733</v>
+        <v>0.21428571428571427</v>
+      </c>
+      <c r="J28" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>18</v>
+        <v>278</v>
       </c>
       <c r="B29" t="n">
-        <v>1.0</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="C29" t="n">
-        <v>1.0</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D29" t="n">
-        <v>169.0</v>
+        <v>21.0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0</v>
+        <v>47.0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0</v>
+        <v>0.1</v>
       </c>
       <c r="H29" t="n">
-        <v>1.0</v>
+        <v>0.4158415841584159</v>
+      </c>
+      <c r="J29" t="n">
+        <v>68.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>18</v>
+        <v>281</v>
       </c>
       <c r="B30" t="n">
-        <v>1.0</v>
+        <v>0.08284023668639054</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
       </c>
       <c r="D30" t="n">
-        <v>169.0</v>
+        <v>14.0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0</v>
+        <v>155.0</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -894,12 +1858,15 @@
         <v>0.0</v>
       </c>
       <c r="H30" t="n">
-        <v>1.0</v>
+        <v>0.15300546448087432</v>
+      </c>
+      <c r="J30" t="n">
+        <v>169.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>19</v>
+        <v>284</v>
       </c>
       <c r="B31" t="n">
         <v>0.3333333333333333</v>
@@ -917,276 +1884,1197 @@
         <v>0.0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6590000000000005</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
         <v>0.5</v>
       </c>
+      <c r="J31" t="n">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>297</v>
       </c>
       <c r="B32" t="n">
-        <v>0.6470588235294118</v>
+        <v>0.453125</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4583333333333333</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="D32" t="n">
-        <v>11.0</v>
+        <v>29.0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.0</v>
+        <v>35.0</v>
       </c>
       <c r="F32" t="n">
-        <v>13.0</v>
+        <v>10.0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.3060000000000002</v>
+        <v>0.1</v>
       </c>
       <c r="H32" t="n">
-        <v>0.5365853658536585</v>
+        <v>0.5631067961165049</v>
+      </c>
+      <c r="J32" t="n">
+        <v>64.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>320</v>
       </c>
       <c r="B33" t="n">
-        <v>0.23333333333333334</v>
+        <v>0.4</v>
       </c>
       <c r="C33" t="n">
-        <v>0.75</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="D33" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="E33" t="n">
-        <v>69.0</v>
+        <v>24.0</v>
       </c>
       <c r="F33" t="n">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.025000000000000015</v>
+        <v>0.1</v>
       </c>
       <c r="H33" t="n">
-        <v>0.35593220338983045</v>
+        <v>0.42666666666666664</v>
+      </c>
+      <c r="J33" t="n">
+        <v>40.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>326</v>
       </c>
       <c r="B34" t="n">
         <v>0.25</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D34" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="E34" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="F34" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1350000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3076923076923077</v>
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="J34" t="n">
+        <v>16.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C35" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.2780000000000002</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I35" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.002242152466367713</v>
-      </c>
-      <c r="C36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E36" t="n">
-        <v>445.0</v>
-      </c>
-      <c r="F36" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.012000000000000004</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.00447427293064877</v>
-      </c>
-      <c r="I36" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.08333333333333333</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="E37" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="F37" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0.17900000000000013</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.11764705882352941</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.02564102564102564</v>
-      </c>
-      <c r="C38" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>152.0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.05</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="D39" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.17700000000000013</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.7407407407407408</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="B40" t="n">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="D40" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0.10300000000000008</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.3448275862068966</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="D41" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.10300000000000008</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.4166666666666667</v>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" t="s">
+        <v>48</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" t="s">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" t="s">
+        <v>116</v>
+      </c>
+      <c r="N13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B15" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="D16" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>133</v>
+      </c>
+      <c r="H16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I16" t="s">
+        <v>135</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
+      <c r="E17" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" t="s">
+        <v>146</v>
+      </c>
+      <c r="G17" t="s">
+        <v>147</v>
+      </c>
+      <c r="H17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E18" t="s">
+        <v>153</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" t="s">
+        <v>173</v>
+      </c>
+      <c r="H18" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" t="s">
+        <v>169</v>
+      </c>
+      <c r="K18" t="s">
+        <v>174</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="s">
+        <v>156</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+      <c r="O18" t="s">
+        <v>164</v>
+      </c>
+      <c r="P18" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>172</v>
+      </c>
+      <c r="R18" t="s">
+        <v>170</v>
+      </c>
+      <c r="S18" t="s">
+        <v>159</v>
+      </c>
+      <c r="T18" t="s">
+        <v>160</v>
+      </c>
+      <c r="U18" t="s">
+        <v>165</v>
+      </c>
+      <c r="V18" t="s">
+        <v>161</v>
+      </c>
+      <c r="W18" t="s">
+        <v>166</v>
+      </c>
+      <c r="X18" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>175</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D19" t="s">
+        <v>179</v>
+      </c>
+      <c r="E19" t="s">
+        <v>181</v>
+      </c>
+      <c r="F19" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>150</v>
+      </c>
+      <c r="B20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" t="s">
+        <v>155</v>
+      </c>
+      <c r="F20" t="s">
+        <v>185</v>
+      </c>
+      <c r="G20" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" t="s">
+        <v>184</v>
+      </c>
+      <c r="I20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
+      <c r="D21" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" t="s">
+        <v>194</v>
+      </c>
+      <c r="G21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" t="s">
+        <v>200</v>
+      </c>
+      <c r="C22" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B23" t="s">
+        <v>206</v>
+      </c>
+      <c r="C23" t="s">
+        <v>207</v>
+      </c>
+      <c r="D23" t="s">
+        <v>208</v>
+      </c>
+      <c r="E23" t="s">
+        <v>205</v>
+      </c>
+      <c r="F23" t="s">
+        <v>209</v>
+      </c>
+      <c r="G23" t="s">
+        <v>210</v>
+      </c>
+      <c r="H23" t="s">
+        <v>211</v>
+      </c>
+      <c r="I23" t="s">
+        <v>212</v>
+      </c>
+      <c r="J23" t="s">
+        <v>213</v>
+      </c>
+      <c r="K23" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" t="s">
+        <v>215</v>
+      </c>
+      <c r="M23" t="s">
+        <v>216</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>218</v>
+      </c>
+      <c r="P23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>226</v>
+      </c>
+      <c r="D24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" t="s">
+        <v>222</v>
+      </c>
+      <c r="G24" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" t="s">
+        <v>223</v>
+      </c>
+      <c r="I24" t="s">
+        <v>224</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>225</v>
+      </c>
+      <c r="L24" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" t="s">
+        <v>219</v>
+      </c>
+      <c r="N24" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>197</v>
+      </c>
+      <c r="B25" t="s">
+        <v>230</v>
+      </c>
+      <c r="C25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>235</v>
+      </c>
+      <c r="B26" t="s">
+        <v>239</v>
+      </c>
+      <c r="C26" t="s">
+        <v>240</v>
+      </c>
+      <c r="D26" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" t="s">
+        <v>241</v>
+      </c>
+      <c r="F26" t="s">
+        <v>237</v>
+      </c>
+      <c r="G26" t="s">
+        <v>238</v>
+      </c>
+      <c r="H26" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>235</v>
+      </c>
+      <c r="B27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C27" t="s">
+        <v>245</v>
+      </c>
+      <c r="D27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E27" t="s">
+        <v>250</v>
+      </c>
+      <c r="F27" t="s">
+        <v>248</v>
+      </c>
+      <c r="G27" t="s">
+        <v>249</v>
+      </c>
+      <c r="H27" t="s">
+        <v>246</v>
+      </c>
+      <c r="I27" t="s">
+        <v>247</v>
+      </c>
+      <c r="J27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" t="s">
+        <v>254</v>
+      </c>
+      <c r="E28" t="s">
+        <v>257</v>
+      </c>
+      <c r="F28" t="s">
+        <v>258</v>
+      </c>
+      <c r="G28" t="s">
+        <v>264</v>
+      </c>
+      <c r="H28" t="s">
+        <v>255</v>
+      </c>
+      <c r="I28" t="s">
+        <v>259</v>
+      </c>
+      <c r="J28" t="s">
+        <v>260</v>
+      </c>
+      <c r="K28" t="s">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>253</v>
+      </c>
+      <c r="B29" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" t="s">
+        <v>267</v>
+      </c>
+      <c r="D29" t="s">
+        <v>268</v>
+      </c>
+      <c r="E29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" t="s">
+        <v>269</v>
+      </c>
+      <c r="G29" t="s">
+        <v>270</v>
+      </c>
+      <c r="H29" t="s">
+        <v>271</v>
+      </c>
+      <c r="I29" t="s">
+        <v>272</v>
+      </c>
+      <c r="J29" t="s">
+        <v>273</v>
+      </c>
+      <c r="K29" t="s">
+        <v>274</v>
+      </c>
+      <c r="L29" t="s">
+        <v>258</v>
+      </c>
+      <c r="M29" t="s">
+        <v>275</v>
+      </c>
+      <c r="N29" t="s">
+        <v>276</v>
+      </c>
+      <c r="O29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>253</v>
+      </c>
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>285</v>
+      </c>
+      <c r="B32" t="s">
+        <v>287</v>
+      </c>
+      <c r="C32" t="s">
+        <v>288</v>
+      </c>
+      <c r="D32" t="s">
+        <v>289</v>
+      </c>
+      <c r="E32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F32" t="s">
+        <v>291</v>
+      </c>
+      <c r="G32" t="s">
+        <v>286</v>
+      </c>
+      <c r="H32" t="s">
+        <v>292</v>
+      </c>
+      <c r="I32" t="s">
+        <v>293</v>
+      </c>
+      <c r="J32" t="s">
+        <v>294</v>
+      </c>
+      <c r="K32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>298</v>
+      </c>
+      <c r="B33" t="s">
+        <v>301</v>
+      </c>
+      <c r="C33" t="s">
+        <v>302</v>
+      </c>
+      <c r="D33" t="s">
+        <v>303</v>
+      </c>
+      <c r="E33" t="s">
+        <v>304</v>
+      </c>
+      <c r="F33" t="s">
+        <v>305</v>
+      </c>
+      <c r="G33" t="s">
+        <v>306</v>
+      </c>
+      <c r="H33" t="s">
+        <v>307</v>
+      </c>
+      <c r="I33" t="s">
+        <v>308</v>
+      </c>
+      <c r="J33" t="s">
+        <v>309</v>
+      </c>
+      <c r="K33" t="s">
+        <v>310</v>
+      </c>
+      <c r="L33" t="s">
+        <v>299</v>
+      </c>
+      <c r="M33" t="s">
+        <v>300</v>
+      </c>
+      <c r="N33" t="s">
+        <v>311</v>
+      </c>
+      <c r="O33" t="s">
+        <v>312</v>
+      </c>
+      <c r="P33" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>314</v>
+      </c>
+      <c r="R33" t="s">
+        <v>315</v>
+      </c>
+      <c r="S33" t="s">
+        <v>316</v>
+      </c>
+      <c r="T33" t="s">
+        <v>317</v>
+      </c>
+      <c r="U33" t="s">
+        <v>318</v>
+      </c>
+      <c r="V33" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>298</v>
+      </c>
+      <c r="B34" t="s">
+        <v>322</v>
+      </c>
+      <c r="C34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34" t="s">
+        <v>321</v>
+      </c>
+      <c r="F34" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
